--- a/Analise/Projeto Tecnico - Parte 2/L5 - L6 - Desenho das telas com descrição/Padrao_Nomes.xlsx
+++ b/Analise/Projeto Tecnico - Parte 2/L5 - L6 - Desenho das telas com descrição/Padrao_Nomes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>textarea</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>btNome</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>checkNome</t>
   </si>
 </sst>
 </file>
@@ -380,15 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -437,6 +444,14 @@
       </c>
       <c r="B6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
